--- a/sprint-54/17-bugfix-90328-melilla-cartas notificaciones no aptas/ENS/sprint54.test_bugfix_90328-carta notificaciones no aptas.xlsx
+++ b/sprint-54/17-bugfix-90328-melilla-cartas notificaciones no aptas/ENS/sprint54.test_bugfix_90328-carta notificaciones no aptas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gdesousa\Sacyr\acuama-iteraciones\sprint-54\17-bugfix-90328-melilla-cartas notificaciones no aptas\ENS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33ED09F-B3FF-4390-9D94-FE5130726FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAE5D6B-716C-403F-BBA5-1A8C60553373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="85005" yWindow="1410" windowWidth="31890" windowHeight="18945" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="82395" yWindow="3060" windowWidth="28320" windowHeight="14190" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja_de_Control" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>Plan de Pruebas Unitarias</t>
   </si>
@@ -245,15 +245,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">objectid= 6804
-</t>
-  </si>
-  <si>
-    <t>objectid= 3339
-contrato=18706
-Se ha editado para hacerlo apto</t>
-  </si>
-  <si>
     <t>Otros casos</t>
   </si>
   <si>
@@ -273,6 +264,33 @@
   </si>
   <si>
     <t>Comprobar que la informacion de pruebas no aparece en PRE</t>
+  </si>
+  <si>
+    <t>Con contrato comunitario y representante</t>
+  </si>
+  <si>
+    <t>Con representante</t>
+  </si>
+  <si>
+    <t>Una carta de cada tipo</t>
+  </si>
+  <si>
+    <t>Comprobar la paginación y formato</t>
+  </si>
+  <si>
+    <t>LOGO AGUA</t>
+  </si>
+  <si>
+    <t>Nombres de mas de 30 caracateres</t>
+  </si>
+  <si>
+    <t>Direcciones de mas de 50 caracateres</t>
+  </si>
+  <si>
+    <t>Hijos</t>
+  </si>
+  <si>
+    <t>Padres</t>
   </si>
 </sst>
 </file>
@@ -1111,6 +1129,13 @@
     <xf numFmtId="14" fontId="29" fillId="25" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1127,21 +1152,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1329,9 +1347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>935655</xdr:colOff>
+      <xdr:colOff>931845</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>891915</xdr:rowOff>
+      <xdr:rowOff>895725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1502,40 +1520,40 @@
       <c r="F2" s="42"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:8" ht="30">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="51"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="15" spans="2:8" ht="34.950000000000003" customHeight="1">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17"/>
@@ -1546,43 +1564,43 @@
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="2:16" ht="20.399999999999999" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="2:16" ht="19.95" customHeight="1">
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="2:16" ht="19.95" customHeight="1">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1592,8 +1610,8 @@
     </row>
     <row r="22" spans="2:16" ht="35.25" customHeight="1">
       <c r="B22" s="4"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1604,8 +1622,8 @@
     </row>
     <row r="23" spans="2:16" ht="34.799999999999997">
       <c r="B23" s="7"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1636,10 +1654,10 @@
       <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="10" t="s">
         <v>18</v>
       </c>
@@ -1651,10 +1669,10 @@
       <c r="C28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="49">
         <f>$F$21</f>
         <v>45446</v>
@@ -1663,50 +1681,50 @@
     <row r="29" spans="2:16" ht="25.5" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:16" ht="25.5" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="25.5" customHeight="1">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="19.95" customHeight="1">
@@ -2030,11 +2048,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="D27:E27"/>
@@ -2044,13 +2064,11 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2064,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:IS50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="13.8"/>
@@ -2084,31 +2102,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:253">
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:253" ht="96" customHeight="1">
-      <c r="C7" s="57" t="str">
+      <c r="C7" s="51" t="str">
         <f>Hoja_de_Control!C7</f>
         <v>Bugfix 90328</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2120,35 +2138,35 @@
     </row>
     <row r="13" spans="1:253" ht="19.95" customHeight="1"/>
     <row r="14" spans="1:253" ht="19.95" customHeight="1">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:253" s="36" customFormat="1" ht="67.2">
       <c r="A15" s="32"/>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -2398,18 +2416,18 @@
     </row>
     <row r="16" spans="1:253" s="36" customFormat="1" ht="16.8">
       <c r="A16" s="32"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
@@ -2659,18 +2677,18 @@
     </row>
     <row r="17" spans="1:253" s="36" customFormat="1" ht="16.8">
       <c r="A17" s="32"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+        <v>56</v>
+      </c>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
@@ -2920,16 +2938,16 @@
     </row>
     <row r="18" spans="1:253" s="36" customFormat="1" ht="33.6">
       <c r="A18" s="32"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="39"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -3187,10 +3205,10 @@
     </row>
     <row r="20" spans="1:253" ht="19.95" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -4006,10 +4024,10 @@
     </row>
     <row r="28" spans="1:253" ht="19.95" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -4040,7 +4058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:253" s="31" customFormat="1" ht="30.6">
+    <row r="30" spans="1:253" s="31" customFormat="1" ht="20.399999999999999">
       <c r="A30" s="27"/>
       <c r="B30" s="28">
         <v>1</v>
@@ -4057,9 +4075,11 @@
       <c r="F30" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="37"/>
+      <c r="G30" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="H30" s="38" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="30"/>
@@ -4328,7 +4348,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I31" s="29"/>
       <c r="J31" s="30"/>
@@ -4593,8 +4613,12 @@
       <c r="F32" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
+      <c r="G32" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
@@ -4858,8 +4882,12 @@
       <c r="F33" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="I33" s="29"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
@@ -5879,10 +5907,10 @@
     </row>
     <row r="38" spans="1:253" ht="19.95" customHeight="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
       <c r="F38" s="31"/>
@@ -5918,14 +5946,22 @@
       <c r="B40" s="28">
         <v>1</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="33" t="s">
+        <v>65</v>
+      </c>
       <c r="D40" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
+      <c r="F40" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="I40" s="29"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
@@ -6177,12 +6213,19 @@
       <c r="B41" s="28">
         <v>2</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="D41" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E41" s="40"/>
-      <c r="G41" s="37"/>
+      <c r="F41" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="H41" s="38"/>
       <c r="I41" s="29"/>
       <c r="J41" s="30"/>
@@ -6435,12 +6478,19 @@
       <c r="B42" s="28">
         <v>3</v>
       </c>
-      <c r="C42" s="33"/>
+      <c r="C42" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="D42" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" s="40"/>
-      <c r="G42" s="37"/>
+      <c r="F42" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="H42" s="38"/>
       <c r="I42" s="29"/>
       <c r="J42" s="30"/>
@@ -6693,12 +6743,19 @@
       <c r="B43" s="28">
         <v>4</v>
       </c>
-      <c r="C43" s="33"/>
+      <c r="C43" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="D43" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E43" s="40"/>
-      <c r="G43" s="37"/>
+      <c r="F43" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="H43" s="38"/>
       <c r="I43" s="29"/>
       <c r="J43" s="30"/>
@@ -6949,14 +7006,21 @@
     <row r="44" spans="1:253" s="31" customFormat="1" ht="54" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="28">
-        <v>4</v>
-      </c>
-      <c r="C44" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="D44" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E44" s="40"/>
-      <c r="G44" s="37"/>
+      <c r="F44" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="H44" s="38"/>
       <c r="I44" s="29"/>
       <c r="J44" s="30"/>
@@ -7206,10 +7270,10 @@
     </row>
     <row r="46" spans="1:253" ht="19.95" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="61"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
@@ -8010,17 +8074,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B18:C18"/>
@@ -8028,6 +8081,17 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
